--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T19:07:59-05:00</t>
+    <t>2025-06-24T13:00:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1977,7 +1977,7 @@
     <t>Drives the behavior associated with this message.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/rtlsMessageEvents</t>
+    <t>http://hl7.org/fhir/uv/rtls/ValueSet/rtlsMessageEvents</t>
   </si>
   <si>
     <t>MessageHeader.destination</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:00:09-05:00</t>
+    <t>2025-06-24T13:13:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:13:18-05:00</t>
+    <t>2025-06-24T13:15:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:15:27-05:00</t>
+    <t>2025-06-24T13:30:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -21473,7 +21473,7 @@
         <v>85</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>77</v>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:30:24-05:00</t>
+    <t>2025-06-24T13:47:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,13 +66,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:47:41-05:00</t>
+    <t>2025-06-25T12:47:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1526,7 +1526,7 @@
     <t>Bundle.type</t>
   </si>
   <si>
-    <t>message | subscription-notification</t>
+    <t>message</t>
   </si>
   <si>
     <t>Indicates the purpose of this bundle - how it is intended to be used.</t>
@@ -1621,7 +1621,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>For bundles of type "message", the first entry resource must be MessageHeader. For bundles of type "subscription-notification", the first entry resource must be SubscriptionStatus).</t>
+    <t>For bundles of type "message", the first entry resource must be MessageHeader.</t>
   </si>
   <si>
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T14:07:30-05:00</t>
+    <t>2025-08-05T17:07:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:07:14-05:00</t>
+    <t>2025-08-05T17:18:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:18:07-05:00</t>
+    <t>2025-08-06T08:42:49-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T08:42:49-05:00</t>
+    <t>2025-08-06T11:48:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T11:48:33-05:00</t>
+    <t>2025-08-06T12:28:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T12:28:55-05:00</t>
+    <t>2025-08-07T11:40:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T11:40:07-05:00</t>
+    <t>2025-08-07T11:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
